--- a/Code/Results/Cases/Case_5_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_117/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8323254249794445</v>
+        <v>0.2830809886899601</v>
       </c>
       <c r="C2">
-        <v>0.1171967760934933</v>
+        <v>0.0522837017491895</v>
       </c>
       <c r="D2">
-        <v>0.05825687150800007</v>
+        <v>0.0330633798573885</v>
       </c>
       <c r="E2">
-        <v>0.3390859503333488</v>
+        <v>0.1652192017219249</v>
       </c>
       <c r="F2">
-        <v>0.5880145371404524</v>
+        <v>0.8129378803801544</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8534155201479336</v>
+        <v>0.2587585588637467</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5833556415742933</v>
+        <v>0.2176760785492249</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.777402701998682</v>
+        <v>2.832204797704463</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7239863231620802</v>
+        <v>0.2507523373220124</v>
       </c>
       <c r="C3">
-        <v>0.1079228604391673</v>
+        <v>0.04908269788906239</v>
       </c>
       <c r="D3">
-        <v>0.05360739558383898</v>
+        <v>0.03135415875789249</v>
       </c>
       <c r="E3">
-        <v>0.2952409222776495</v>
+        <v>0.1541697129981685</v>
       </c>
       <c r="F3">
-        <v>0.5567401517889863</v>
+        <v>0.8105211648305968</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7468048962045515</v>
+        <v>0.2259095237993876</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5046542266005147</v>
+        <v>0.1957731359861299</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.723510883460108</v>
+        <v>2.838189110713785</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6576082405915145</v>
+        <v>0.2309166325486842</v>
       </c>
       <c r="C4">
-        <v>0.1022188800670349</v>
+        <v>0.04710047589718158</v>
       </c>
       <c r="D4">
-        <v>0.05073878403103294</v>
+        <v>0.03029392869182601</v>
       </c>
       <c r="E4">
-        <v>0.2688451934899092</v>
+        <v>0.1474994569335948</v>
       </c>
       <c r="F4">
-        <v>0.5386998648770813</v>
+        <v>0.8095404201753809</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6813965498137406</v>
+        <v>0.205696411878975</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4567607450943498</v>
+        <v>0.1823977817767144</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.694215190105325</v>
+        <v>2.843528099202757</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6305828298596623</v>
+        <v>0.2228373722527976</v>
       </c>
       <c r="C5">
-        <v>0.09989123563889279</v>
+        <v>0.04628852206153056</v>
       </c>
       <c r="D5">
-        <v>0.04956613997353543</v>
+        <v>0.02985919589619357</v>
       </c>
       <c r="E5">
-        <v>0.25820645096492</v>
+        <v>0.1448097466896172</v>
       </c>
       <c r="F5">
-        <v>0.5316240739562019</v>
+        <v>0.8092671998140943</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.654744171111858</v>
+        <v>0.1974487944272738</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4373359863877866</v>
+        <v>0.176965547393074</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.683181257635795</v>
+        <v>2.846122018784854</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6260964151114194</v>
+        <v>0.2214960669335255</v>
       </c>
       <c r="C6">
-        <v>0.09950451571071994</v>
+        <v>0.0461534463431903</v>
       </c>
       <c r="D6">
-        <v>0.04937119699184223</v>
+        <v>0.02978684771185414</v>
       </c>
       <c r="E6">
-        <v>0.2564466032516108</v>
+        <v>0.1443648351530982</v>
       </c>
       <c r="F6">
-        <v>0.5304653341140551</v>
+        <v>0.8092294663289721</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6503183858005315</v>
+        <v>0.1960786539932968</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4341156466270064</v>
+        <v>0.1760646344298564</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.681402294371622</v>
+        <v>2.846577987859177</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6572436833759241</v>
+        <v>0.2308076563246289</v>
       </c>
       <c r="C7">
-        <v>0.1021875026829591</v>
+        <v>0.04708954248439312</v>
       </c>
       <c r="D7">
-        <v>0.0507229844055459</v>
+        <v>0.03028807655272203</v>
       </c>
       <c r="E7">
-        <v>0.2687012573438423</v>
+        <v>0.1474630675859743</v>
       </c>
       <c r="F7">
-        <v>0.538603342873067</v>
+        <v>0.8095362235761243</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6810371119556606</v>
+        <v>0.2055852240915073</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4564984227687177</v>
+        <v>0.1823244466209744</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.694062784981071</v>
+        <v>2.843561388733775</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7949332515225933</v>
+        <v>0.2719313333304285</v>
       </c>
       <c r="C8">
-        <v>0.1140006702817402</v>
+        <v>0.05118350413928852</v>
       </c>
       <c r="D8">
-        <v>0.05665648011227375</v>
+        <v>0.03247628878721542</v>
       </c>
       <c r="E8">
-        <v>0.3238502299677393</v>
+        <v>0.1613854949032074</v>
       </c>
       <c r="F8">
-        <v>0.576979679179459</v>
+        <v>0.8120001246013402</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8166388671947402</v>
+        <v>0.2474414878396942</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.556120435045699</v>
+        <v>0.2101087198407185</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.7580025363159</v>
+        <v>2.833922492611748</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.066647223130644</v>
+        <v>0.3526751361916354</v>
       </c>
       <c r="C9">
-        <v>0.1371276819913305</v>
+        <v>0.05907710337417882</v>
       </c>
       <c r="D9">
-        <v>0.06819226515631271</v>
+        <v>0.03668104365467428</v>
       </c>
       <c r="E9">
-        <v>0.436863993893283</v>
+        <v>0.1896054350021572</v>
       </c>
       <c r="F9">
-        <v>0.662251002494763</v>
+        <v>0.8208287424903773</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.083490877514663</v>
+        <v>0.3291626809500769</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7556567781503816</v>
+        <v>0.2651795853471342</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.915883071547995</v>
+        <v>2.828246759254682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.268187953712442</v>
+        <v>0.4120481324848413</v>
       </c>
       <c r="C10">
-        <v>0.1541558631405593</v>
+        <v>0.06479310223576817</v>
       </c>
       <c r="D10">
-        <v>0.07662248103223135</v>
+        <v>0.03971667308556448</v>
       </c>
       <c r="E10">
-        <v>0.523917314889907</v>
+        <v>0.2109173303031753</v>
       </c>
       <c r="F10">
-        <v>0.7321862231415679</v>
+        <v>0.8297605130629222</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.280931526769905</v>
+        <v>0.3889738941032306</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9059670547629537</v>
+        <v>0.3060093878631278</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.055246786682062</v>
+        <v>2.832169520643475</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.360500626027829</v>
+        <v>0.4390675447407659</v>
       </c>
       <c r="C11">
-        <v>0.1619252695166296</v>
+        <v>0.06737509638109884</v>
       </c>
       <c r="D11">
-        <v>0.08045169339062141</v>
+        <v>0.04108583131483812</v>
       </c>
       <c r="E11">
-        <v>0.564651451938623</v>
+        <v>0.2207425410970814</v>
       </c>
       <c r="F11">
-        <v>0.7658673479571689</v>
+        <v>0.8343568068720373</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.371250435540759</v>
+        <v>0.4161319071561991</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9754362254181004</v>
+        <v>0.3246669330914855</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.124578192048091</v>
+        <v>2.835718031893919</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.395566494844388</v>
+        <v>0.4493002885963335</v>
       </c>
       <c r="C12">
-        <v>0.1648720088375484</v>
+        <v>0.0683501748729185</v>
       </c>
       <c r="D12">
-        <v>0.081901229174413</v>
+        <v>0.04160258225358149</v>
       </c>
       <c r="E12">
-        <v>0.5802629292676116</v>
+        <v>0.2244821261931236</v>
       </c>
       <c r="F12">
-        <v>0.7789155922374533</v>
+        <v>0.8361740954580483</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.405541613338443</v>
+        <v>0.4264084038767066</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.001925101796623</v>
+        <v>0.33174425484723</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.15176311644845</v>
+        <v>2.837315889454118</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.38800927364548</v>
+        <v>0.4470964426118087</v>
       </c>
       <c r="C13">
-        <v>0.1642371477718143</v>
+        <v>0.0681402935614841</v>
       </c>
       <c r="D13">
-        <v>0.08158906269660804</v>
+        <v>0.04149136761173366</v>
       </c>
       <c r="E13">
-        <v>0.576892035102901</v>
+        <v>0.2236758910059962</v>
       </c>
       <c r="F13">
-        <v>0.7760919202418677</v>
+        <v>0.8357792938092814</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.398152131518771</v>
+        <v>0.4241955232466808</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9962117082615549</v>
+        <v>0.3302194873132791</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.145865669117001</v>
+        <v>2.836960453352447</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.363383219899191</v>
+        <v>0.4399093794446571</v>
       </c>
       <c r="C14">
-        <v>0.1621675988087929</v>
+        <v>0.06745537036738369</v>
       </c>
       <c r="D14">
-        <v>0.08057095572841888</v>
+        <v>0.0411283793473558</v>
       </c>
       <c r="E14">
-        <v>0.5659319413304829</v>
+        <v>0.2210498169678417</v>
       </c>
       <c r="F14">
-        <v>0.7669347912247559</v>
+        <v>0.8345047771042857</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.374069696964852</v>
+        <v>0.4169775164231453</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9776116723961934</v>
+        <v>0.3252489455074254</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.126795596062522</v>
+        <v>2.835844393224107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.348313824391312</v>
+        <v>0.4355072241562254</v>
       </c>
       <c r="C15">
-        <v>0.1609005843017428</v>
+        <v>0.06703548657704061</v>
       </c>
       <c r="D15">
-        <v>0.07994728021578368</v>
+        <v>0.04090581379364266</v>
       </c>
       <c r="E15">
-        <v>0.5592435656256924</v>
+        <v>0.2194437514313918</v>
       </c>
       <c r="F15">
-        <v>0.7613648527985788</v>
+        <v>0.8337340997447029</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.359330682149817</v>
+        <v>0.4125552701514437</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9662431582911708</v>
+        <v>0.3222059244043152</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.115238220697364</v>
+        <v>2.835193880512804</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.262169332247396</v>
+        <v>0.4102825234807028</v>
       </c>
       <c r="C16">
-        <v>0.1536486892612459</v>
+        <v>0.06462399204062308</v>
       </c>
       <c r="D16">
-        <v>0.07637214437194473</v>
+        <v>0.03962695625602208</v>
       </c>
       <c r="E16">
-        <v>0.5212799975403328</v>
+        <v>0.2102778735239568</v>
       </c>
       <c r="F16">
-        <v>0.7300247848007189</v>
+        <v>0.8294708721264072</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.275040513127976</v>
+        <v>0.3871980050866455</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9014511770457503</v>
+        <v>0.304791765628778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.050841695568607</v>
+        <v>2.831973152188709</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.209496638246094</v>
+        <v>0.3948103437952</v>
       </c>
       <c r="C17">
-        <v>0.1492067153853185</v>
+        <v>0.06313991489960813</v>
       </c>
       <c r="D17">
-        <v>0.074177664788877</v>
+        <v>0.03883938548419508</v>
       </c>
       <c r="E17">
-        <v>0.4982968003587729</v>
+        <v>0.2046884613820552</v>
       </c>
       <c r="F17">
-        <v>0.7112943911086234</v>
+        <v>0.8269921536286091</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.223471609908472</v>
+        <v>0.3716289448530574</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8620005039730003</v>
+        <v>0.2941302615771164</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.012909489762848</v>
+        <v>2.830449468906778</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.179258886278717</v>
+        <v>0.3859121526270144</v>
       </c>
       <c r="C18">
-        <v>0.1466539088480943</v>
+        <v>0.06228459848874479</v>
       </c>
       <c r="D18">
-        <v>0.07291489746996405</v>
+        <v>0.03838528989454915</v>
       </c>
       <c r="E18">
-        <v>0.485182609953867</v>
+        <v>0.2014858309370808</v>
       </c>
       <c r="F18">
-        <v>0.7006952828014192</v>
+        <v>0.8256166404156602</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.193856698835532</v>
+        <v>0.3626693126245186</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8394106882139525</v>
+        <v>0.2880059367447956</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.991645461371149</v>
+        <v>2.829739098452364</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169030361374837</v>
+        <v>0.3828995617441535</v>
       </c>
       <c r="C19">
-        <v>0.1457898953551791</v>
+        <v>0.06199470991160183</v>
       </c>
       <c r="D19">
-        <v>0.07248724053842892</v>
+        <v>0.03823135187459314</v>
       </c>
       <c r="E19">
-        <v>0.4807597486196613</v>
+        <v>0.2004035718830863</v>
       </c>
       <c r="F19">
-        <v>0.6971357690067777</v>
+        <v>0.8251595306882678</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.183837026497088</v>
+        <v>0.3596349367105063</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8317788035175155</v>
+        <v>0.2859336990883463</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.984538646807437</v>
+        <v>2.829527078247366</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.215097585852305</v>
+        <v>0.3964572834735236</v>
       </c>
       <c r="C20">
-        <v>0.1496793447887796</v>
+        <v>0.06329807520505426</v>
       </c>
       <c r="D20">
-        <v>0.07441132668404293</v>
+        <v>0.03892333837659834</v>
       </c>
       <c r="E20">
-        <v>0.5007323568535114</v>
+        <v>0.2052821940398672</v>
       </c>
       <c r="F20">
-        <v>0.7132700749514669</v>
+        <v>0.8272508232600302</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.228956310697185</v>
+        <v>0.3732867893952516</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8661894483402222</v>
+        <v>0.2952643798722292</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.016889604605666</v>
+        <v>2.83059448272752</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.370613375162719</v>
+        <v>0.4420203680753332</v>
       </c>
       <c r="C21">
-        <v>0.1627753388131055</v>
+        <v>0.06765662162816</v>
       </c>
       <c r="D21">
-        <v>0.08087000939720923</v>
+        <v>0.04123504468892492</v>
       </c>
       <c r="E21">
-        <v>0.5691459321406001</v>
+        <v>0.2218206411589776</v>
       </c>
       <c r="F21">
-        <v>0.7696162721292552</v>
+        <v>0.8348770491944038</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.381140722533843</v>
+        <v>0.4190978309206059</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9830697902660859</v>
+        <v>0.3267085849058304</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.132371034889843</v>
+        <v>2.836165307007263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.472897253451265</v>
+        <v>0.4718045780902571</v>
       </c>
       <c r="C22">
-        <v>0.171362026980006</v>
+        <v>0.07048962052525098</v>
       </c>
       <c r="D22">
-        <v>0.08508836522895535</v>
+        <v>0.04273584266839237</v>
       </c>
       <c r="E22">
-        <v>0.6149567502319258</v>
+        <v>0.2327402831699317</v>
       </c>
       <c r="F22">
-        <v>0.8081683136583422</v>
+        <v>0.8403087597600063</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.481131944631443</v>
+        <v>0.4489931986000499</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.060534470655199</v>
+        <v>0.3473298277708068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.213309684579514</v>
+        <v>2.841287536966178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.418240914577353</v>
+        <v>0.4559077607520123</v>
       </c>
       <c r="C23">
-        <v>0.1667761550439053</v>
+        <v>0.0689790339592804</v>
       </c>
       <c r="D23">
-        <v>0.08283708882314045</v>
+        <v>0.04193576594929027</v>
       </c>
       <c r="E23">
-        <v>0.5903978333924869</v>
+        <v>0.2269020425680708</v>
       </c>
       <c r="F23">
-        <v>0.7874254512477279</v>
+        <v>0.837368771610528</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.427710213417015</v>
+        <v>0.4330417102545994</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.019082638075886</v>
+        <v>0.3363174008265162</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.169583974898217</v>
+        <v>2.838418012816902</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.212565260259538</v>
+        <v>0.3957127114505852</v>
       </c>
       <c r="C24">
-        <v>0.1494656661937199</v>
+        <v>0.06322657747271876</v>
       </c>
       <c r="D24">
-        <v>0.07430569169025603</v>
+        <v>0.03888538735330371</v>
       </c>
       <c r="E24">
-        <v>0.4996309346569205</v>
+        <v>0.2050137338956333</v>
       </c>
       <c r="F24">
-        <v>0.7123763430256957</v>
+        <v>0.8271337244266022</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.226476576777742</v>
+        <v>0.3725373051731538</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8642953453421143</v>
+        <v>0.2947516290638603</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.015088506945204</v>
+        <v>2.830528406120408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.992872567580406</v>
+        <v>0.3308221618610503</v>
       </c>
       <c r="C25">
-        <v>0.1308694270807536</v>
+        <v>0.05695623117097171</v>
       </c>
       <c r="D25">
-        <v>0.06508067135639095</v>
+        <v>0.03555288947519841</v>
       </c>
       <c r="E25">
-        <v>0.4056659532442737</v>
+        <v>0.181870941155708</v>
       </c>
       <c r="F25">
-        <v>0.6379937009946488</v>
+        <v>0.8180115616049903</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.011119728477439</v>
+        <v>0.3070944521543026</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7011149129765215</v>
+        <v>0.250217483831392</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.869341302809801</v>
+        <v>2.828363172449087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_117/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2830809886899601</v>
+        <v>0.8323254249794729</v>
       </c>
       <c r="C2">
-        <v>0.0522837017491895</v>
+        <v>0.1171967760937918</v>
       </c>
       <c r="D2">
-        <v>0.0330633798573885</v>
+        <v>0.05825687150800718</v>
       </c>
       <c r="E2">
-        <v>0.1652192017219249</v>
+        <v>0.3390859503333274</v>
       </c>
       <c r="F2">
-        <v>0.8129378803801544</v>
+        <v>0.5880145371404168</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2587585588637467</v>
+        <v>0.8534155201479052</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2176760785492249</v>
+        <v>0.5833556415742862</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.832204797704463</v>
+        <v>1.777402701998682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2507523373220124</v>
+        <v>0.7239863231621086</v>
       </c>
       <c r="C3">
-        <v>0.04908269788906239</v>
+        <v>0.1079228604388263</v>
       </c>
       <c r="D3">
-        <v>0.03135415875789249</v>
+        <v>0.05360739558359739</v>
       </c>
       <c r="E3">
-        <v>0.1541697129981685</v>
+        <v>0.2952409222776637</v>
       </c>
       <c r="F3">
-        <v>0.8105211648305968</v>
+        <v>0.5567401517889863</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2259095237993876</v>
+        <v>0.7468048962045373</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1957731359861299</v>
+        <v>0.5046542266005005</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.838189110713785</v>
+        <v>1.723510883460136</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2309166325486842</v>
+        <v>0.6576082405915429</v>
       </c>
       <c r="C4">
-        <v>0.04710047589718158</v>
+        <v>0.1022188800672694</v>
       </c>
       <c r="D4">
-        <v>0.03029392869182601</v>
+        <v>0.05073878403121057</v>
       </c>
       <c r="E4">
-        <v>0.1474994569335948</v>
+        <v>0.2688451934899092</v>
       </c>
       <c r="F4">
-        <v>0.8095404201753809</v>
+        <v>0.5386998648770955</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.205696411878975</v>
+        <v>0.6813965498137549</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1823977817767144</v>
+        <v>0.4567607450943498</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.843528099202757</v>
+        <v>1.694215190105353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2228373722527976</v>
+        <v>0.6305828298598612</v>
       </c>
       <c r="C5">
-        <v>0.04628852206153056</v>
+        <v>0.09989123563881463</v>
       </c>
       <c r="D5">
-        <v>0.02985919589619357</v>
+        <v>0.04956613997342174</v>
       </c>
       <c r="E5">
-        <v>0.1448097466896172</v>
+        <v>0.2582064509649058</v>
       </c>
       <c r="F5">
-        <v>0.8092671998140943</v>
+        <v>0.531624073956209</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1974487944272738</v>
+        <v>0.6547441711118722</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.176965547393074</v>
+        <v>0.4373359863877866</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.846122018784854</v>
+        <v>1.683181257635852</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2214960669335255</v>
+        <v>0.6260964151114763</v>
       </c>
       <c r="C6">
-        <v>0.0461534463431903</v>
+        <v>0.09950451571096863</v>
       </c>
       <c r="D6">
-        <v>0.02978684771185414</v>
+        <v>0.04937119699189907</v>
       </c>
       <c r="E6">
-        <v>0.1443648351530982</v>
+        <v>0.2564466032516179</v>
       </c>
       <c r="F6">
-        <v>0.8092294663289721</v>
+        <v>0.5304653341140551</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1960786539932968</v>
+        <v>0.6503183858005599</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1760646344298564</v>
+        <v>0.4341156466269993</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.846577987859177</v>
+        <v>1.681402294371594</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2308076563246289</v>
+        <v>0.6572436833758388</v>
       </c>
       <c r="C7">
-        <v>0.04708954248439312</v>
+        <v>0.1021875026829591</v>
       </c>
       <c r="D7">
-        <v>0.03028807655272203</v>
+        <v>0.05072298440556722</v>
       </c>
       <c r="E7">
-        <v>0.1474630675859743</v>
+        <v>0.268701257343821</v>
       </c>
       <c r="F7">
-        <v>0.8095362235761243</v>
+        <v>0.5386033428730457</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2055852240915073</v>
+        <v>0.6810371119556748</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1823244466209744</v>
+        <v>0.4564984227687106</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.843561388733775</v>
+        <v>1.694062784981043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2719313333304285</v>
+        <v>0.7949332515226502</v>
       </c>
       <c r="C8">
-        <v>0.05118350413928852</v>
+        <v>0.1140006702814276</v>
       </c>
       <c r="D8">
-        <v>0.03247628878721542</v>
+        <v>0.05665648011238034</v>
       </c>
       <c r="E8">
-        <v>0.1613854949032074</v>
+        <v>0.3238502299677535</v>
       </c>
       <c r="F8">
-        <v>0.8120001246013402</v>
+        <v>0.5769796791794519</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2474414878396942</v>
+        <v>0.8166388671947544</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2101087198407185</v>
+        <v>0.5561204350456848</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.833922492611748</v>
+        <v>1.758002536315871</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3526751361916354</v>
+        <v>1.066647223130644</v>
       </c>
       <c r="C9">
-        <v>0.05907710337417882</v>
+        <v>0.1371276819913163</v>
       </c>
       <c r="D9">
-        <v>0.03668104365467428</v>
+        <v>0.06819226515634824</v>
       </c>
       <c r="E9">
-        <v>0.1896054350021572</v>
+        <v>0.4368639938932901</v>
       </c>
       <c r="F9">
-        <v>0.8208287424903773</v>
+        <v>0.6622510024947843</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3291626809500769</v>
+        <v>1.083490877514606</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2651795853471342</v>
+        <v>0.7556567781503745</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.828246759254682</v>
+        <v>1.915883071547995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4120481324848413</v>
+        <v>1.268187953712527</v>
       </c>
       <c r="C10">
-        <v>0.06479310223576817</v>
+        <v>0.1541558631405309</v>
       </c>
       <c r="D10">
-        <v>0.03971667308556448</v>
+        <v>0.07662248103209635</v>
       </c>
       <c r="E10">
-        <v>0.2109173303031753</v>
+        <v>0.523917314889907</v>
       </c>
       <c r="F10">
-        <v>0.8297605130629222</v>
+        <v>0.7321862231415537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3889738941032306</v>
+        <v>1.280931526770019</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3060093878631278</v>
+        <v>0.9059670547629324</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.832169520643475</v>
+        <v>2.055246786682233</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4390675447407659</v>
+        <v>1.360500626027743</v>
       </c>
       <c r="C11">
-        <v>0.06737509638109884</v>
+        <v>0.1619252695162885</v>
       </c>
       <c r="D11">
-        <v>0.04108583131483812</v>
+        <v>0.08045169339067826</v>
       </c>
       <c r="E11">
-        <v>0.2207425410970814</v>
+        <v>0.5646514519386372</v>
       </c>
       <c r="F11">
-        <v>0.8343568068720373</v>
+        <v>0.7658673479571689</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4161319071561991</v>
+        <v>1.371250435540674</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3246669330914855</v>
+        <v>0.9754362254181004</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.835718031893919</v>
+        <v>2.124578192048034</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4493002885963335</v>
+        <v>1.395566494844644</v>
       </c>
       <c r="C12">
-        <v>0.0683501748729185</v>
+        <v>0.1648720088379179</v>
       </c>
       <c r="D12">
-        <v>0.04160258225358149</v>
+        <v>0.0819012291744059</v>
       </c>
       <c r="E12">
-        <v>0.2244821261931236</v>
+        <v>0.5802629292676116</v>
       </c>
       <c r="F12">
-        <v>0.8361740954580483</v>
+        <v>0.7789155922374533</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4264084038767066</v>
+        <v>1.405541613338329</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.33174425484723</v>
+        <v>1.001925101796623</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.837315889454118</v>
+        <v>2.151763116448421</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4470964426118087</v>
+        <v>1.388009273645423</v>
       </c>
       <c r="C13">
-        <v>0.0681402935614841</v>
+        <v>0.1642371477718143</v>
       </c>
       <c r="D13">
-        <v>0.04149136761173366</v>
+        <v>0.08158906269638777</v>
       </c>
       <c r="E13">
-        <v>0.2236758910059962</v>
+        <v>0.5768920351028797</v>
       </c>
       <c r="F13">
-        <v>0.8357792938092814</v>
+        <v>0.7760919202418819</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4241955232466808</v>
+        <v>1.398152131518771</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3302194873132791</v>
+        <v>0.9962117082615265</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.836960453352447</v>
+        <v>2.145865669117029</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4399093794446571</v>
+        <v>1.363383219899191</v>
       </c>
       <c r="C14">
-        <v>0.06745537036738369</v>
+        <v>0.1621675988090345</v>
       </c>
       <c r="D14">
-        <v>0.0411283793473558</v>
+        <v>0.08057095572830519</v>
       </c>
       <c r="E14">
-        <v>0.2210498169678417</v>
+        <v>0.5659319413305042</v>
       </c>
       <c r="F14">
-        <v>0.8345047771042857</v>
+        <v>0.7669347912247559</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4169775164231453</v>
+        <v>1.374069696964852</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3252489455074254</v>
+        <v>0.9776116723961934</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.835844393224107</v>
+        <v>2.12679559606255</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4355072241562254</v>
+        <v>1.348313824391084</v>
       </c>
       <c r="C15">
-        <v>0.06703548657704061</v>
+        <v>0.1609005843015154</v>
       </c>
       <c r="D15">
-        <v>0.04090581379364266</v>
+        <v>0.07994728021582631</v>
       </c>
       <c r="E15">
-        <v>0.2194437514313918</v>
+        <v>0.5592435656257067</v>
       </c>
       <c r="F15">
-        <v>0.8337340997447029</v>
+        <v>0.7613648527985646</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4125552701514437</v>
+        <v>1.359330682149817</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3222059244043152</v>
+        <v>0.9662431582911921</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.835193880512804</v>
+        <v>2.115238220697421</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4102825234807028</v>
+        <v>1.262169332247538</v>
       </c>
       <c r="C16">
-        <v>0.06462399204062308</v>
+        <v>0.1536486892615727</v>
       </c>
       <c r="D16">
-        <v>0.03962695625602208</v>
+        <v>0.07637214437195183</v>
       </c>
       <c r="E16">
-        <v>0.2102778735239568</v>
+        <v>0.5212799975403541</v>
       </c>
       <c r="F16">
-        <v>0.8294708721264072</v>
+        <v>0.7300247848007331</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3871980050866455</v>
+        <v>1.275040513128033</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.304791765628778</v>
+        <v>0.9014511770457361</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.831973152188709</v>
+        <v>2.050841695568607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3948103437952</v>
+        <v>1.209496638246094</v>
       </c>
       <c r="C17">
-        <v>0.06313991489960813</v>
+        <v>0.1492067153856453</v>
       </c>
       <c r="D17">
-        <v>0.03883938548419508</v>
+        <v>0.07417766478889121</v>
       </c>
       <c r="E17">
-        <v>0.2046884613820552</v>
+        <v>0.4982968003587658</v>
       </c>
       <c r="F17">
-        <v>0.8269921536286091</v>
+        <v>0.7112943911085949</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3716289448530574</v>
+        <v>1.223471609908444</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2941302615771164</v>
+        <v>0.8620005039730287</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.830449468906778</v>
+        <v>2.012909489762791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3859121526270144</v>
+        <v>1.179258886278518</v>
       </c>
       <c r="C18">
-        <v>0.06228459848874479</v>
+        <v>0.1466539088482932</v>
       </c>
       <c r="D18">
-        <v>0.03838528989454915</v>
+        <v>0.07291489746995694</v>
       </c>
       <c r="E18">
-        <v>0.2014858309370808</v>
+        <v>0.4851826099539025</v>
       </c>
       <c r="F18">
-        <v>0.8256166404156602</v>
+        <v>0.700695282801405</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3626693126245186</v>
+        <v>1.19385669883556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2880059367447956</v>
+        <v>0.8394106882139809</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.829739098452364</v>
+        <v>1.991645461371178</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3828995617441535</v>
+        <v>1.169030361374666</v>
       </c>
       <c r="C19">
-        <v>0.06199470991160183</v>
+        <v>0.145789895355108</v>
       </c>
       <c r="D19">
-        <v>0.03823135187459314</v>
+        <v>0.07248724053837918</v>
       </c>
       <c r="E19">
-        <v>0.2004035718830863</v>
+        <v>0.4807597486196542</v>
       </c>
       <c r="F19">
-        <v>0.8251595306882678</v>
+        <v>0.6971357690067634</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3596349367105063</v>
+        <v>1.183837026497002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2859336990883463</v>
+        <v>0.8317788035175298</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.829527078247366</v>
+        <v>1.984538646807437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3964572834735236</v>
+        <v>1.215097585852334</v>
       </c>
       <c r="C20">
-        <v>0.06329807520505426</v>
+        <v>0.1496793447884528</v>
       </c>
       <c r="D20">
-        <v>0.03892333837659834</v>
+        <v>0.07441132668392925</v>
       </c>
       <c r="E20">
-        <v>0.2052821940398672</v>
+        <v>0.5007323568534972</v>
       </c>
       <c r="F20">
-        <v>0.8272508232600302</v>
+        <v>0.7132700749514811</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3732867893952516</v>
+        <v>1.228956310697242</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2952643798722292</v>
+        <v>0.8661894483402079</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.83059448272752</v>
+        <v>2.016889604605723</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4420203680753332</v>
+        <v>1.370613375162776</v>
       </c>
       <c r="C21">
-        <v>0.06765662162816</v>
+        <v>0.1627753388130913</v>
       </c>
       <c r="D21">
-        <v>0.04123504468892492</v>
+        <v>0.08087000939715949</v>
       </c>
       <c r="E21">
-        <v>0.2218206411589776</v>
+        <v>0.5691459321406001</v>
       </c>
       <c r="F21">
-        <v>0.8348770491944038</v>
+        <v>0.7696162721292552</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4190978309206059</v>
+        <v>1.381140722533871</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3267085849058304</v>
+        <v>0.983069790266093</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.836165307007263</v>
+        <v>2.132371034889871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4718045780902571</v>
+        <v>1.472897253451123</v>
       </c>
       <c r="C22">
-        <v>0.07048962052525098</v>
+        <v>0.1713620269802192</v>
       </c>
       <c r="D22">
-        <v>0.04273584266839237</v>
+        <v>0.0850883652286214</v>
       </c>
       <c r="E22">
-        <v>0.2327402831699317</v>
+        <v>0.6149567502319258</v>
       </c>
       <c r="F22">
-        <v>0.8403087597600063</v>
+        <v>0.808168313658328</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4489931986000499</v>
+        <v>1.4811319446315</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3473298277708068</v>
+        <v>1.060534470655206</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.841287536966178</v>
+        <v>2.213309684579485</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4559077607520123</v>
+        <v>1.418240914577581</v>
       </c>
       <c r="C23">
-        <v>0.0689790339592804</v>
+        <v>0.1667761550439053</v>
       </c>
       <c r="D23">
-        <v>0.04193576594929027</v>
+        <v>0.08283708882318308</v>
       </c>
       <c r="E23">
-        <v>0.2269020425680708</v>
+        <v>0.5903978333925011</v>
       </c>
       <c r="F23">
-        <v>0.837368771610528</v>
+        <v>0.7874254512477421</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4330417102545994</v>
+        <v>1.427710213416958</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3363174008265162</v>
+        <v>1.019082638075893</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.838418012816902</v>
+        <v>2.16958397489816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3957127114505852</v>
+        <v>1.212565260259424</v>
       </c>
       <c r="C24">
-        <v>0.06322657747271876</v>
+        <v>0.1494656661934926</v>
       </c>
       <c r="D24">
-        <v>0.03888538735330371</v>
+        <v>0.07430569169027024</v>
       </c>
       <c r="E24">
-        <v>0.2050137338956333</v>
+        <v>0.4996309346569419</v>
       </c>
       <c r="F24">
-        <v>0.8271337244266022</v>
+        <v>0.7123763430256673</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3725373051731538</v>
+        <v>1.226476576777742</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2947516290638603</v>
+        <v>0.8642953453421001</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.830528406120408</v>
+        <v>2.015088506945233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3308221618610503</v>
+        <v>0.9928725675801502</v>
       </c>
       <c r="C25">
-        <v>0.05695623117097171</v>
+        <v>0.130869427080512</v>
       </c>
       <c r="D25">
-        <v>0.03555288947519841</v>
+        <v>0.06508067135635542</v>
       </c>
       <c r="E25">
-        <v>0.181870941155708</v>
+        <v>0.4056659532442737</v>
       </c>
       <c r="F25">
-        <v>0.8180115616049903</v>
+        <v>0.637993700994663</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3070944521543026</v>
+        <v>1.011119728477468</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.250217483831392</v>
+        <v>0.7011149129765286</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.828363172449087</v>
+        <v>1.869341302809801</v>
       </c>
     </row>
   </sheetData>
